--- a/biology/Biologie cellulaire et moléculaire/Projet_Origine_Serbe/Projet_Origine_Serbe.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Projet_Origine_Serbe/Projet_Origine_Serbe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société des généalogistes serbes est fondée le 1er octobre 2012. Elle est basée à Belgrade. En son sein est créé le Project DNK Serbe, qui a pour but d'établir les origines génétiques des Serbes via leurs Haplogroupes. Le projet est lié aux autres projets « haplogroupes » dans toute l'Europe et coopère avec la communauté scientifique, ainsi qu'avec l'Institut ethnographique de SANU du docteur Ivica Todorovic.
 </t>
@@ -511,7 +523,9 @@
           <t>Le Project DNK serbe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet d'ADN serbe est mené par des passionnés rassemblés autour du Projet Origine Serbe pour recueillir des informations auprès de tous le Serbes en Serbie et dans le monde qui ont fait leur analyse de l'ADN-Y et de l'ADN-MT. Ils sont la référence serbe pour les résultats par haplogroupes.
 </t>
@@ -542,7 +556,9 @@
           <t>Mission du Projet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Collection de documents sur l'origine du nom, l'origine des établissements et de leur population, sur les coutumes nationales et religieuses, sur la recherche génétique des individus ;
 Documenter et publier le matériel recueilli sous forme électronique et imprimée ;
@@ -579,7 +595,9 @@
           <t>Liens Externes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Друштво српских родословаца „Порекло“: About us
 Друштво српских родословаца „Порекло“ Impression
